--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_gradCAM++_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_gradCAM++_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2262311412344136</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2252837872101605</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2865996668478598</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.315084969749132</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2266712501669613</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.00666741458213522</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006664322547621499</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006864449228065343</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006709545765344424</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006665021263803228</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01524041666617985</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0151635018032787</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02014168562396358</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02014976975446355</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01524054156911865</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004674861414585173</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004677450788177618</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004509857981827815</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004365973539169468</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004672638344369347</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005059939723135497</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005065544386868438</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004702792049240997</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004520210309345153</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005057118764730147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006370346521827248</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006360626440624864</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006989742181748336</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.00670777336301258</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006365989994664593</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006585460000716046</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006593857468015685</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006050345664588301</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005884197655797311</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006582892949803963</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.29336298685782</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2937371038658445</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2695230161571593</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.262550861295668</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.293255264372148</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1536199203025423</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1539700352153339</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1313094423403263</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1338723237748218</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.153659517810643</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002481185481907676</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.00247718331846648</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002736216547405094</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002795421865990387</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002482100226948436</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02038494342372804</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02040343974894889</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01920629652482509</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01820826565238313</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02036952346124976</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002486960622931413</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002487483920412052</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002453614380075637</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002242792472642134</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002483703343029575</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01938801730861013</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01941245502160804</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01783076556820224</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01640639677270093</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01936601026054341</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2265634520222078</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2269051399000444</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2047899725447477</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.184827006016891</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2262550164784639</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.002863537401429415</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.002865446845649876</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.00274186131268199</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002784530031899667</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.002864196649622533</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002451094231602469</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002455257203074469</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002185815947558898</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002285810732884852</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002452639189659699</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002566146991156973</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002587715726191157</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001191715997012607</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001073149435696798</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002564315091987164</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005301349010156896</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005208170285423541</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01123900493042262</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01049339320872225</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005289829021056898</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>1.03575595446196e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1.042147807312643e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>6.284459914963334e-06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3.438887333091857e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.03135943490998e-05</v>
       </c>
     </row>
